--- a/ETL_Group/ETL_Group/Johnathan_Saunders_HW2.xlsx
+++ b/ETL_Group/ETL_Group/Johnathan_Saunders_HW2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnathansaunders/Documents/fall_17/DataWarehousing-/HW2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnathansaunders/Documents/fall_17/DataWarehousing-/ETL_Group/ETL_Group/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>Item</t>
   </si>
@@ -379,8 +379,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -400,13 +428,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -682,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P158"/>
+  <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,24 +823,20 @@
         <f>C2*((K2+L2)/2)</f>
         <v>812</v>
       </c>
-      <c r="F2">
-        <f>D2*((K2+L2)/2)*((M2+N2))/2</f>
-        <v>84.734811957569917</v>
-      </c>
       <c r="G2">
         <f>F2+E2</f>
-        <v>896.73481195756995</v>
+        <v>812</v>
       </c>
       <c r="H2" s="3">
         <f>G2*O2</f>
-        <v>12554.287367405979</v>
+        <v>1218</v>
       </c>
       <c r="I2" s="2">
         <v>13343</v>
       </c>
       <c r="J2" s="2">
         <f>((I2-H2)/H2)*100</f>
-        <v>6.2824165921334014</v>
+        <v>995.4844006568145</v>
       </c>
       <c r="K2" s="1">
         <v>1180</v>
@@ -799,7 +851,7 @@
         <v>100</v>
       </c>
       <c r="O2" s="1">
-        <v>14</v>
+        <v>1.5</v>
       </c>
       <c r="P2">
         <v>2074</v>
@@ -817,31 +869,27 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">B3/2074</f>
+        <f t="shared" ref="D3:D8" si="0">B3/2074</f>
         <v>4.0983606557377046E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="1">C3*((K3+L3)/2)</f>
+        <f t="shared" ref="E3:E7" si="1">C3*((K3+L3)/2)</f>
         <v>463.99999999999994</v>
       </c>
-      <c r="F3">
-        <f>D3*((K3+L3)/2)*((M3+N3))/2</f>
-        <v>2400.8196721311474</v>
-      </c>
       <c r="G3">
-        <f t="shared" ref="G3:G6" si="2">F3+E3</f>
-        <v>2864.8196721311474</v>
+        <f t="shared" ref="G3:G8" si="2">F3+E3</f>
+        <v>463.99999999999994</v>
       </c>
       <c r="H3" s="3">
         <f>G3*O3</f>
-        <v>40107.475409836065</v>
+        <v>1391.9999999999998</v>
       </c>
       <c r="I3" s="2">
         <v>40767</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J62" si="3">((I3-H3)/H3)*100</f>
-        <v>1.6443931796370108</v>
+        <f t="shared" ref="J3:J64" si="3">((I3-H3)/H3)*100</f>
+        <v>2828.6637931034488</v>
       </c>
       <c r="K3" s="1">
         <v>1180</v>
@@ -856,7 +904,7 @@
         <v>100</v>
       </c>
       <c r="O3" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -867,7 +915,8 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <f>0.1 *0.9 +0.05</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -875,26 +924,22 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>348</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F63" si="4">D4*((K4+L4)/2)*((M4+N4))/2</f>
-        <v>112.97974927675989</v>
+        <v>162.4</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>460.97974927675989</v>
+        <v>162.4</v>
       </c>
       <c r="H4" s="3">
         <f>G4*O4</f>
-        <v>6453.7164898746387</v>
+        <v>487.20000000000005</v>
       </c>
       <c r="I4" s="2">
         <v>6328</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="3"/>
-        <v>-1.9479704457404927</v>
+        <v>1198.8505747126435</v>
       </c>
       <c r="K4" s="1">
         <v>1180</v>
@@ -909,7 +954,7 @@
         <v>100</v>
       </c>
       <c r="O4" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -920,8 +965,8 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <f>C4*0.5</f>
-        <v>0.15</v>
+        <f>0.1</f>
+        <v>0.1</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -929,26 +974,22 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>174</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="4"/>
-        <v>508.40887174541945</v>
+        <v>116</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>682.40887174541945</v>
+        <v>116</v>
       </c>
       <c r="H5" s="3">
         <f>G5*O5</f>
-        <v>9553.7242044358718</v>
+        <v>348</v>
       </c>
       <c r="I5" s="2">
         <v>9818</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="3"/>
-        <v>2.7662070822750233</v>
+        <v>2721.2643678160921</v>
       </c>
       <c r="K5" s="1">
         <v>1180</v>
@@ -963,46 +1004,42 @@
         <v>100</v>
       </c>
       <c r="O5" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>82</v>
       </c>
       <c r="C6">
-        <f>C4*0.5</f>
-        <v>0.15</v>
+        <f>0.2*0.8+0.01</f>
+        <v>0.17000000000000004</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>2.2661523625843779E-2</v>
+        <v>3.9537126325940211E-2</v>
       </c>
       <c r="E6">
-        <f>C6*((K6+L6)/2)</f>
-        <v>174</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="4"/>
-        <v>1327.5120540019286</v>
+        <f t="shared" si="1"/>
+        <v>197.20000000000005</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>1501.5120540019286</v>
+        <v>197.20000000000005</v>
       </c>
       <c r="H6" s="3">
-        <f>G6*O6</f>
-        <v>21021.168756027</v>
-      </c>
-      <c r="I6" s="2">
-        <v>20223</v>
+        <f t="shared" ref="H6:H7" si="4">G6*O6</f>
+        <v>2760.8000000000006</v>
+      </c>
+      <c r="I6">
+        <v>30464</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="3"/>
-        <v>-3.7969761115121465</v>
+        <f t="shared" ref="J6:J7" si="5">((I6-H6)/H6)*100</f>
+        <v>1003.4482758620687</v>
       </c>
       <c r="K6" s="1">
         <v>1180</v>
@@ -1020,45 +1057,88 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>162</v>
+      </c>
+      <c r="C7">
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>7.8109932497589199E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>928</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>928</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="4"/>
+        <v>12992</v>
+      </c>
+      <c r="I7">
+        <v>60434</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="5"/>
+        <v>365.16317733990149</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>100</v>
+      </c>
+      <c r="O7" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>294</v>
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <f>0.5</f>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D38" si="5">B8/2074</f>
-        <v>0.14175506268081003</v>
+        <f t="shared" si="0"/>
+        <v>2.2661523625843779E-2</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E38" si="6">C8*((K8+L8)/2)</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="4"/>
-        <v>8304.011571841851</v>
+        <f>C8*((K8+L8)/2)</f>
+        <v>580</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G38" si="7">F8+E8</f>
-        <v>8304.011571841851</v>
+        <f t="shared" si="2"/>
+        <v>580</v>
       </c>
       <c r="H8" s="3">
         <f>G8*O8</f>
-        <v>116256.16200578591</v>
-      </c>
-      <c r="I8">
-        <v>109794</v>
+        <v>1740</v>
+      </c>
+      <c r="I8" s="2">
+        <v>20223</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>-5.5585543977138157</v>
+        <v>1062.2413793103447</v>
       </c>
       <c r="K8" s="1">
         <v>1180</v>
@@ -1073,2793 +1153,2753 @@
         <v>100</v>
       </c>
       <c r="O8" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>294</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D40" si="6">B10/2074</f>
+        <v>0.14175506268081003</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:E40" si="7">C10*((K10+L10)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F65" si="8">D10*((K10+L10)/2)*((M10+N10))/2</f>
+        <v>8304.011571841851</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G40" si="9">F10+E10</f>
+        <v>8304.011571841851</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" ref="H10:H40" si="10">G10*O10</f>
+        <v>24912.034715525551</v>
+      </c>
+      <c r="I10">
+        <v>109794</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
+        <v>340.72674614400222</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <f>H10/B10 *1.5</f>
+        <v>127.10221793635486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="5"/>
+      <c r="D11">
+        <f t="shared" si="6"/>
         <v>2.4108003857280617E-3</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="4"/>
+      <c r="E11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="8"/>
         <v>141.22468659594986</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="7"/>
+      <c r="G11">
+        <f t="shared" si="9"/>
         <v>141.22468659594986</v>
       </c>
-      <c r="H9" s="3">
-        <f>G9*O9</f>
+      <c r="H11" s="3">
+        <f t="shared" si="10"/>
         <v>1977.1456123432981</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>1865</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J11" s="2">
         <f t="shared" si="3"/>
         <v>-5.6720967663268862</v>
       </c>
-      <c r="K9" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
-        <v>100</v>
-      </c>
-      <c r="O9" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="K11" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>100</v>
+      </c>
+      <c r="O11" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="5"/>
+      <c r="D12">
+        <f t="shared" si="6"/>
         <v>4.8216007714561235E-3</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="4"/>
+      <c r="E12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="8"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="7"/>
+      <c r="G12">
+        <f t="shared" si="9"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="H10" s="3">
-        <f>G10*O10</f>
+      <c r="H12" s="3">
+        <f t="shared" si="10"/>
         <v>3954.2912246865963</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>3647</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J12" s="2">
         <f t="shared" si="3"/>
         <v>-7.7710822806418642</v>
       </c>
-      <c r="K10" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>100</v>
-      </c>
-      <c r="O10" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K12" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>100</v>
+      </c>
+      <c r="O12" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>162</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="5"/>
+      <c r="D13">
+        <f t="shared" si="6"/>
         <v>7.8109932497589199E-2</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="4"/>
+      <c r="E13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="8"/>
         <v>4575.6798457087752</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="7"/>
+      <c r="G13">
+        <f t="shared" si="9"/>
         <v>4575.6798457087752</v>
       </c>
-      <c r="H11" s="3">
-        <f>G11*O11</f>
+      <c r="H13" s="3">
+        <f t="shared" si="10"/>
         <v>64059.517839922853</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>60434</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J13" s="2">
         <f t="shared" si="3"/>
         <v>-5.6596083801045669</v>
       </c>
-      <c r="K11" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>100</v>
-      </c>
-      <c r="O11" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K13" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>100</v>
+      </c>
+      <c r="O13" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>76</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="5"/>
+      <c r="D14">
+        <f t="shared" si="6"/>
         <v>3.6644165863066541E-2</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
+      <c r="E14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="8"/>
         <v>2146.615236258438</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="7"/>
+      <c r="G14">
+        <f t="shared" si="9"/>
         <v>2146.615236258438</v>
       </c>
-      <c r="H12" s="3">
-        <f>G12*O12</f>
+      <c r="H14" s="3">
+        <f t="shared" si="10"/>
         <v>30052.613307618132</v>
       </c>
-      <c r="I12">
+      <c r="I14">
         <v>28223</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J14" s="2">
         <f t="shared" si="3"/>
         <v>-6.0880339719219618</v>
       </c>
-      <c r="K12" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
-        <v>100</v>
-      </c>
-      <c r="O12" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K14" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>100</v>
+      </c>
+      <c r="O14" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="5"/>
+      <c r="D15">
+        <f t="shared" si="6"/>
         <v>9.6432015429122472E-4</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="4"/>
+      <c r="E15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="8"/>
         <v>56.489874638379945</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="7"/>
+      <c r="G15">
+        <f t="shared" si="9"/>
         <v>56.489874638379945</v>
       </c>
-      <c r="H13" s="3">
-        <f>G13*O13</f>
+      <c r="H15" s="3">
+        <f t="shared" si="10"/>
         <v>790.85824493731923</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>734</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J15" s="2">
         <f t="shared" si="3"/>
         <v>-7.1894356923377121</v>
       </c>
-      <c r="K13" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>100</v>
-      </c>
-      <c r="O13" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K15" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="5"/>
+      <c r="D16">
+        <f t="shared" si="6"/>
         <v>7.2324011571841852E-3</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="4"/>
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="8"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="7"/>
+      <c r="G16">
+        <f t="shared" si="9"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="H14" s="3">
-        <f>G14*O14</f>
+      <c r="H16" s="3">
+        <f t="shared" si="10"/>
         <v>5931.4368370298935</v>
       </c>
-      <c r="I14">
+      <c r="I16">
         <v>5597</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J16" s="2">
         <f t="shared" si="3"/>
         <v>-5.638378123526631</v>
       </c>
-      <c r="K14" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>100</v>
-      </c>
-      <c r="O14" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K16" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>100</v>
+      </c>
+      <c r="O16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="5"/>
+      <c r="D17">
+        <f t="shared" si="6"/>
         <v>1.9286403085824494E-3</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="4"/>
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="8"/>
         <v>112.97974927675989</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="7"/>
+      <c r="G17">
+        <f t="shared" si="9"/>
         <v>112.97974927675989</v>
       </c>
-      <c r="H15" s="3">
-        <f>G15*O15</f>
+      <c r="H17" s="3">
+        <f t="shared" si="10"/>
         <v>1581.7164898746385</v>
       </c>
-      <c r="I15">
+      <c r="I17">
         <v>1553</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J17" s="2">
         <f t="shared" si="3"/>
         <v>-1.8155269960493634</v>
       </c>
-      <c r="K15" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>100</v>
-      </c>
-      <c r="O15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="K17" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>100</v>
+      </c>
+      <c r="O17" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="5"/>
+      <c r="D18">
+        <f t="shared" si="6"/>
         <v>9.6432015429122472E-4</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="4"/>
+      <c r="E18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="8"/>
         <v>56.489874638379945</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="7"/>
+      <c r="G18">
+        <f t="shared" si="9"/>
         <v>56.489874638379945</v>
       </c>
-      <c r="H16" s="3">
-        <f>G16*O16</f>
+      <c r="H18" s="3">
+        <f t="shared" si="10"/>
         <v>790.85824493731923</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <v>729</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J18" s="2">
         <f t="shared" si="3"/>
         <v>-7.8216602448422226</v>
       </c>
-      <c r="K16" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1">
-        <v>100</v>
-      </c>
-      <c r="O16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="K18" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="5"/>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="6"/>
         <v>4.8216007714561236E-4</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="4"/>
+      <c r="E19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="8"/>
         <v>28.244937319189972</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="7"/>
+      <c r="G19">
+        <f t="shared" si="9"/>
         <v>28.244937319189972</v>
       </c>
-      <c r="H17" s="3">
-        <f>G17*O17</f>
+      <c r="H19" s="3">
+        <f t="shared" si="10"/>
         <v>395.42912246865961</v>
       </c>
-      <c r="I17">
+      <c r="I19">
         <v>356</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J19" s="2">
         <f t="shared" si="3"/>
         <v>-9.9712237233575607</v>
       </c>
-      <c r="K17" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>100</v>
-      </c>
-      <c r="O17" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="K19" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>100</v>
+      </c>
+      <c r="O19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>10</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="5"/>
+      <c r="D20">
+        <f t="shared" si="6"/>
         <v>4.8216007714561235E-3</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="4"/>
+      <c r="E20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="8"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="7"/>
+      <c r="G20">
+        <f t="shared" si="9"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="H18" s="3">
-        <f>G18*O18</f>
+      <c r="H20" s="3">
+        <f t="shared" si="10"/>
         <v>3954.2912246865963</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>3708</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J20" s="2">
         <f t="shared" si="3"/>
         <v>-6.2284543725308561</v>
       </c>
-      <c r="K18" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
-        <v>100</v>
-      </c>
-      <c r="O18" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="K20" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>100</v>
+      </c>
+      <c r="O20" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>21</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="5"/>
+      <c r="D21">
+        <f t="shared" si="6"/>
         <v>1.0125361620057859E-2</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="8"/>
         <v>593.14368370298939</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="7"/>
+      <c r="G21">
+        <f t="shared" si="9"/>
         <v>593.14368370298939</v>
       </c>
-      <c r="H19" s="3">
-        <f>G19*O19</f>
+      <c r="H21" s="3">
+        <f t="shared" si="10"/>
         <v>8304.011571841851</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>7937</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J21" s="2">
         <f t="shared" si="3"/>
         <v>-4.4196900337465079</v>
       </c>
-      <c r="K19" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1">
-        <v>100</v>
-      </c>
-      <c r="O19" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="K21" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>100</v>
+      </c>
+      <c r="O21" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>30</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="5"/>
+      <c r="D22">
+        <f t="shared" si="6"/>
         <v>1.446480231436837E-2</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="4"/>
+      <c r="E22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="8"/>
         <v>847.34811957569912</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="7"/>
+      <c r="G22">
+        <f t="shared" si="9"/>
         <v>847.34811957569912</v>
       </c>
-      <c r="H20" s="3">
-        <f>G20*O20</f>
+      <c r="H22" s="3">
+        <f t="shared" si="10"/>
         <v>11862.873674059787</v>
       </c>
-      <c r="I20">
+      <c r="I22">
         <v>10851</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J22" s="2">
         <f t="shared" si="3"/>
         <v>-8.5297517436472639</v>
       </c>
-      <c r="K20" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>100</v>
-      </c>
-      <c r="O20" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K22" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>100</v>
+      </c>
+      <c r="O22" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <v>45</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="5"/>
+      <c r="D23">
+        <f t="shared" si="6"/>
         <v>2.1697203471552556E-2</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="4"/>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="8"/>
         <v>1271.0221793635487</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="7"/>
+      <c r="G23">
+        <f t="shared" si="9"/>
         <v>1271.0221793635487</v>
       </c>
-      <c r="H21" s="3">
-        <f>G21*O21</f>
+      <c r="H23" s="3">
+        <f t="shared" si="10"/>
         <v>17794.310511089683</v>
       </c>
-      <c r="I21">
+      <c r="I23">
         <v>16831</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J23" s="2">
         <f t="shared" si="3"/>
         <v>-5.4135871715250419</v>
       </c>
-      <c r="K21" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M21" s="1">
-        <v>1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>100</v>
-      </c>
-      <c r="O21" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K23" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>100</v>
+      </c>
+      <c r="O23" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <v>25</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="5"/>
+      <c r="D24">
+        <f t="shared" si="6"/>
         <v>1.2054001928640309E-2</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="4"/>
+      <c r="E24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="8"/>
         <v>706.12343297974928</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="7"/>
+      <c r="G24">
+        <f t="shared" si="9"/>
         <v>706.12343297974928</v>
       </c>
-      <c r="H22" s="3">
-        <f>G22*O22</f>
+      <c r="H24" s="3">
+        <f t="shared" si="10"/>
         <v>9885.7280617164906</v>
       </c>
-      <c r="I22">
+      <c r="I24">
         <v>9327</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J24" s="2">
         <f t="shared" si="3"/>
         <v>-5.6518655806467422</v>
       </c>
-      <c r="K22" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1">
-        <v>100</v>
-      </c>
-      <c r="O22" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K24" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>100</v>
+      </c>
+      <c r="O24" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>15</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="5"/>
+      <c r="D25">
+        <f t="shared" si="6"/>
         <v>7.2324011571841852E-3</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="4"/>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="7"/>
+      <c r="G25">
+        <f t="shared" si="9"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="H23" s="3">
-        <f>G23*O23</f>
+      <c r="H25" s="3">
+        <f t="shared" si="10"/>
         <v>5931.4368370298935</v>
       </c>
-      <c r="I23">
+      <c r="I25">
         <v>5594</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J25" s="2">
         <f t="shared" si="3"/>
         <v>-5.688956087726992</v>
       </c>
-      <c r="K23" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1">
-        <v>100</v>
-      </c>
-      <c r="O23" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="K25" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>100</v>
+      </c>
+      <c r="O25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>133</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="5"/>
+      <c r="D26">
+        <f t="shared" si="6"/>
         <v>6.412729026036644E-2</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="4"/>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
         <v>3756.5766634522661</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="7"/>
+      <c r="G26">
+        <f t="shared" si="9"/>
         <v>3756.5766634522661</v>
       </c>
-      <c r="H24" s="3">
-        <f>G24*O24</f>
+      <c r="H26" s="3">
+        <f t="shared" si="10"/>
         <v>52592.073288331725</v>
       </c>
-      <c r="I24">
+      <c r="I26">
         <v>49756</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J26" s="2">
         <f t="shared" si="3"/>
         <v>-5.3925869641669877</v>
       </c>
-      <c r="K24" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L24" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>100</v>
-      </c>
-      <c r="O24" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="K26" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>100</v>
+      </c>
+      <c r="O26" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>40</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="5"/>
+      <c r="D27">
+        <f t="shared" si="6"/>
         <v>1.9286403085824494E-2</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="4"/>
+      <c r="E27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="8"/>
         <v>1129.7974927675989</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="7"/>
+      <c r="G27">
+        <f t="shared" si="9"/>
         <v>1129.7974927675989</v>
       </c>
-      <c r="H25" s="3">
-        <f>G25*O25</f>
+      <c r="H27" s="3">
+        <f t="shared" si="10"/>
         <v>15817.164898746385</v>
       </c>
-      <c r="I25">
+      <c r="I27">
         <v>14694</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J27" s="2">
         <f t="shared" si="3"/>
         <v>-7.1009242549870812</v>
       </c>
-      <c r="K25" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1">
-        <v>100</v>
-      </c>
-      <c r="O25" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="K27" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>100</v>
+      </c>
+      <c r="O27" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>20</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="5"/>
+      <c r="D28">
+        <f t="shared" si="6"/>
         <v>9.643201542912247E-3</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="4"/>
+      <c r="E28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
         <v>564.89874638379945</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="7"/>
+      <c r="G28">
+        <f t="shared" si="9"/>
         <v>564.89874638379945</v>
       </c>
-      <c r="H26" s="3">
-        <f>G26*O26</f>
+      <c r="H28" s="3">
+        <f t="shared" si="10"/>
         <v>7908.5824493731925</v>
       </c>
-      <c r="I26">
+      <c r="I28">
         <v>7592</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J28" s="2">
         <f t="shared" si="3"/>
         <v>-4.0030239477149756</v>
       </c>
-      <c r="K26" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1">
-        <v>100</v>
-      </c>
-      <c r="O26" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="K28" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>100</v>
+      </c>
+      <c r="O28" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>10</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="5"/>
+      <c r="D29">
+        <f t="shared" si="6"/>
         <v>4.8216007714561235E-3</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="4"/>
+      <c r="E29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="7"/>
+      <c r="G29">
+        <f t="shared" si="9"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="H27" s="3">
-        <f>G27*O27</f>
+      <c r="H29" s="3">
+        <f t="shared" si="10"/>
         <v>3954.2912246865963</v>
       </c>
-      <c r="I27">
+      <c r="I29">
         <v>3755</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J29" s="2">
         <f t="shared" si="3"/>
         <v>-5.0398722138223748</v>
       </c>
-      <c r="K27" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L27" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1">
-        <v>100</v>
-      </c>
-      <c r="O27" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K29" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>100</v>
+      </c>
+      <c r="O29" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>20</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="5"/>
+      <c r="D30">
+        <f t="shared" si="6"/>
         <v>9.643201542912247E-3</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="4"/>
+      <c r="E30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
         <v>564.89874638379945</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="7"/>
+      <c r="G30">
+        <f t="shared" si="9"/>
         <v>564.89874638379945</v>
       </c>
-      <c r="H28" s="3">
-        <f>G28*O28</f>
+      <c r="H30" s="3">
+        <f t="shared" si="10"/>
         <v>7908.5824493731925</v>
       </c>
-      <c r="I28">
+      <c r="I30">
         <v>7613</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J30" s="2">
         <f t="shared" si="3"/>
         <v>-3.7374896356630813</v>
       </c>
-      <c r="K28" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1">
-        <v>100</v>
-      </c>
-      <c r="O28" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K30" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>100</v>
+      </c>
+      <c r="O30" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <v>15</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="5"/>
+      <c r="D31">
+        <f t="shared" si="6"/>
         <v>7.2324011571841852E-3</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="4"/>
+      <c r="E31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="7"/>
+      <c r="G31">
+        <f t="shared" si="9"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="H29" s="3">
-        <f>G29*O29</f>
+      <c r="H31" s="3">
+        <f t="shared" si="10"/>
         <v>5931.4368370298935</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>5470</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J31" s="2">
         <f t="shared" si="3"/>
         <v>-7.7795119413419105</v>
       </c>
-      <c r="K29" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1">
-        <v>100</v>
-      </c>
-      <c r="O29" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="K31" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>100</v>
+      </c>
+      <c r="O31" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B30">
+      <c r="B32">
         <v>5</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="5"/>
+      <c r="D32">
+        <f t="shared" si="6"/>
         <v>2.4108003857280617E-3</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="4"/>
+      <c r="E32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
         <v>141.22468659594986</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="7"/>
+      <c r="G32">
+        <f t="shared" si="9"/>
         <v>141.22468659594986</v>
       </c>
-      <c r="H30" s="3">
-        <f>G30*O30</f>
+      <c r="H32" s="3">
+        <f t="shared" si="10"/>
         <v>1977.1456123432981</v>
       </c>
-      <c r="I30">
+      <c r="I32">
         <v>1910</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J32" s="2">
         <f t="shared" si="3"/>
         <v>-3.3960883773106452</v>
       </c>
-      <c r="K30" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
-      <c r="N30" s="1">
-        <v>100</v>
-      </c>
-      <c r="O30" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="K32" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>100</v>
+      </c>
+      <c r="O32" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>82</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="5"/>
+      <c r="D33">
+        <f t="shared" si="6"/>
         <v>3.9537126325940211E-2</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="4"/>
+      <c r="E33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
         <v>2316.0848601735775</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="7"/>
+      <c r="G33">
+        <f t="shared" si="9"/>
         <v>2316.0848601735775</v>
       </c>
-      <c r="H31" s="3">
-        <f>G31*O31</f>
+      <c r="H33" s="3">
+        <f t="shared" si="10"/>
         <v>32425.188042430083</v>
       </c>
-      <c r="I31">
+      <c r="I33">
         <v>30464</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J33" s="2">
         <f t="shared" si="3"/>
         <v>-6.0483474756222373</v>
       </c>
-      <c r="K31" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L31" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M31" s="1">
-        <v>1</v>
-      </c>
-      <c r="N31" s="1">
-        <v>100</v>
-      </c>
-      <c r="O31" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="K33" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>100</v>
+      </c>
+      <c r="O33" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>20</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="5"/>
+      <c r="D34">
+        <f t="shared" si="6"/>
         <v>9.643201542912247E-3</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="4"/>
+      <c r="E34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="8"/>
         <v>564.89874638379945</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="7"/>
+      <c r="G34">
+        <f t="shared" si="9"/>
         <v>564.89874638379945</v>
       </c>
-      <c r="H32" s="3">
-        <f>G32*O32</f>
+      <c r="H34" s="3">
+        <f t="shared" si="10"/>
         <v>7908.5824493731925</v>
       </c>
-      <c r="I32">
+      <c r="I34">
         <v>7643</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J34" s="2">
         <f t="shared" si="3"/>
         <v>-3.3581549041603744</v>
       </c>
-      <c r="K32" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M32" s="1">
-        <v>1</v>
-      </c>
-      <c r="N32" s="1">
-        <v>100</v>
-      </c>
-      <c r="O32" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="K34" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1">
+        <v>100</v>
+      </c>
+      <c r="O34" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>6</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="5"/>
+      <c r="D35">
+        <f t="shared" si="6"/>
         <v>2.8929604628736743E-3</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="4"/>
+      <c r="E35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="8"/>
         <v>169.46962391513983</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="7"/>
+      <c r="G35">
+        <f t="shared" si="9"/>
         <v>169.46962391513983</v>
       </c>
-      <c r="H33" s="3">
-        <f>G33*O33</f>
+      <c r="H35" s="3">
+        <f t="shared" si="10"/>
         <v>2372.5747348119576</v>
       </c>
-      <c r="I33">
+      <c r="I35">
         <v>2342</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J35" s="2">
         <f t="shared" si="3"/>
         <v>-1.2886732022955989</v>
       </c>
-      <c r="K33" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1</v>
-      </c>
-      <c r="N33" s="1">
-        <v>100</v>
-      </c>
-      <c r="O33" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="K35" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
+        <v>100</v>
+      </c>
+      <c r="O35" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>15</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="5"/>
+      <c r="D36">
+        <f t="shared" si="6"/>
         <v>7.2324011571841852E-3</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="4"/>
+      <c r="E36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="8"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="7"/>
+      <c r="G36">
+        <f t="shared" si="9"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="H34" s="3">
-        <f>G34*O34</f>
+      <c r="H36" s="3">
+        <f t="shared" si="10"/>
         <v>5931.4368370298935</v>
       </c>
-      <c r="I34">
+      <c r="I36">
         <v>5740</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J36" s="2">
         <f t="shared" si="3"/>
         <v>-3.2274951633094267</v>
       </c>
-      <c r="K34" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M34" s="1">
-        <v>1</v>
-      </c>
-      <c r="N34" s="1">
-        <v>100</v>
-      </c>
-      <c r="O34" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="K36" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>100</v>
+      </c>
+      <c r="O36" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="B35">
+      <c r="B37">
         <v>5</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="5"/>
+      <c r="D37">
+        <f t="shared" si="6"/>
         <v>2.4108003857280617E-3</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="4"/>
+      <c r="E37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="8"/>
         <v>141.22468659594986</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="7"/>
+      <c r="G37">
+        <f t="shared" si="9"/>
         <v>141.22468659594986</v>
       </c>
-      <c r="H35" s="3">
-        <f>G35*O35</f>
+      <c r="H37" s="3">
+        <f t="shared" si="10"/>
         <v>1977.1456123432981</v>
       </c>
-      <c r="I35">
+      <c r="I37">
         <v>1835</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J37" s="2">
         <f t="shared" si="3"/>
         <v>-7.189435692337713</v>
       </c>
-      <c r="K35" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L35" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
-      <c r="N35" s="1">
-        <v>100</v>
-      </c>
-      <c r="O35" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="K37" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>100</v>
+      </c>
+      <c r="O37" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>5</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="5"/>
+      <c r="D38">
+        <f t="shared" si="6"/>
         <v>2.4108003857280617E-3</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="4"/>
+      <c r="E38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="8"/>
         <v>141.22468659594986</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="7"/>
+      <c r="G38">
+        <f t="shared" si="9"/>
         <v>141.22468659594986</v>
       </c>
-      <c r="H36" s="3">
-        <f>G36*O36</f>
+      <c r="H38" s="3">
+        <f t="shared" si="10"/>
         <v>1977.1456123432981</v>
       </c>
-      <c r="I36">
+      <c r="I38">
         <v>1777</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J38" s="2">
         <f t="shared" si="3"/>
         <v>-10.122957615958647</v>
       </c>
-      <c r="K36" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L36" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M36" s="1">
-        <v>1</v>
-      </c>
-      <c r="N36" s="1">
-        <v>100</v>
-      </c>
-      <c r="O36" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K38" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>100</v>
+      </c>
+      <c r="O38" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>70</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="5"/>
+      <c r="D39">
+        <f t="shared" si="6"/>
         <v>3.3751205400192864E-2</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="4"/>
+      <c r="E39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="8"/>
         <v>1977.1456123432979</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="7"/>
+      <c r="G39">
+        <f t="shared" si="9"/>
         <v>1977.1456123432979</v>
       </c>
-      <c r="H37" s="3">
-        <f>G37*O37</f>
+      <c r="H39" s="3">
+        <f t="shared" si="10"/>
         <v>27680.03857280617</v>
       </c>
-      <c r="I37">
+      <c r="I39">
         <v>26011</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J39" s="2">
         <f t="shared" si="3"/>
         <v>-6.0297552274579971</v>
       </c>
-      <c r="K37" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L37" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M37" s="1">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1">
-        <v>100</v>
-      </c>
-      <c r="O37" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="K39" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>100</v>
+      </c>
+      <c r="O39" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>120</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="5"/>
+      <c r="D40">
+        <f t="shared" si="6"/>
         <v>5.7859209257473482E-2</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="4"/>
+      <c r="E40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="8"/>
         <v>3389.3924783027965</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="7"/>
+      <c r="G40">
+        <f t="shared" si="9"/>
         <v>3389.3924783027965</v>
       </c>
-      <c r="H38" s="3">
-        <f>G38*O38</f>
+      <c r="H40" s="3">
+        <f t="shared" si="10"/>
         <v>47451.494696239148</v>
       </c>
-      <c r="I38">
+      <c r="I40">
         <v>44749</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J40" s="2">
         <f t="shared" si="3"/>
         <v>-5.6952783332520376</v>
       </c>
-      <c r="K38" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="1">
-        <v>100</v>
-      </c>
-      <c r="O38" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="K40" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>100</v>
+      </c>
+      <c r="O40" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="B39">
+      <c r="B41">
         <v>15</v>
       </c>
-      <c r="D39">
-        <f t="shared" ref="D39:D99" si="8">B39/2074</f>
+      <c r="D41">
+        <f t="shared" ref="D41:D101" si="11">B41/2074</f>
         <v>7.2324011571841852E-3</v>
       </c>
-      <c r="E39">
-        <f t="shared" ref="E39:E99" si="9">C39*((K39+L39)/2)</f>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="4"/>
+      <c r="E41">
+        <f t="shared" ref="E41:E101" si="12">C41*((K41+L41)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="8"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="G39">
-        <f t="shared" ref="G39:G99" si="10">F39+E39</f>
+      <c r="G41">
+        <f t="shared" ref="G41:G101" si="13">F41+E41</f>
         <v>423.67405978784956</v>
       </c>
-      <c r="H39" s="3">
-        <f t="shared" ref="H39:H99" si="11">G39*O39</f>
+      <c r="H41" s="3">
+        <f t="shared" ref="H41:H101" si="14">G41*O41</f>
         <v>5931.4368370298935</v>
       </c>
-      <c r="I39">
+      <c r="I41">
         <v>5610</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J41" s="2">
         <f t="shared" si="3"/>
         <v>-5.4192069453250671</v>
       </c>
-      <c r="K39" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L39" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-      <c r="N39" s="1">
-        <v>100</v>
-      </c>
-      <c r="O39" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="K41" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>100</v>
+      </c>
+      <c r="O41" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B40">
+      <c r="B42">
         <v>34</v>
       </c>
-      <c r="D40">
+      <c r="D42">
+        <f t="shared" si="11"/>
+        <v>1.6393442622950821E-2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="8"/>
-        <v>1.6393442622950821E-2</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="4"/>
         <v>960.32786885245912</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="10"/>
+      <c r="G42">
+        <f t="shared" si="13"/>
         <v>960.32786885245912</v>
       </c>
-      <c r="H40" s="3">
-        <f t="shared" si="11"/>
+      <c r="H42" s="3">
+        <f t="shared" si="14"/>
         <v>13444.590163934428</v>
       </c>
-      <c r="I40">
+      <c r="I42">
         <v>12700</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J42" s="2">
         <f t="shared" si="3"/>
         <v>-5.5382139199141731</v>
       </c>
-      <c r="K40" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L40" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M40" s="1">
-        <v>1</v>
-      </c>
-      <c r="N40" s="1">
-        <v>100</v>
-      </c>
-      <c r="O40" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="K42" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1">
+        <v>100</v>
+      </c>
+      <c r="O42" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>50</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>25</v>
       </c>
-      <c r="D41">
+      <c r="D43">
+        <f t="shared" si="11"/>
+        <v>1.2054001928640309E-2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="8"/>
-        <v>1.2054001928640309E-2</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="4"/>
         <v>706.12343297974928</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="10"/>
+      <c r="G43">
+        <f t="shared" si="13"/>
         <v>706.12343297974928</v>
       </c>
-      <c r="H41" s="3">
-        <f t="shared" si="11"/>
+      <c r="H43" s="3">
+        <f t="shared" si="14"/>
         <v>9885.7280617164906</v>
       </c>
-      <c r="I41">
+      <c r="I43">
         <v>9217</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J43" s="2">
         <f t="shared" si="3"/>
         <v>-6.764580793054682</v>
       </c>
-      <c r="K41" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L41" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-      <c r="N41" s="1">
-        <v>100</v>
-      </c>
-      <c r="O41" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="K43" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>100</v>
+      </c>
+      <c r="O43" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <v>11</v>
       </c>
-      <c r="D42">
+      <c r="D44">
+        <f t="shared" si="11"/>
+        <v>5.303760848601736E-3</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="8"/>
-        <v>5.303760848601736E-3</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="4"/>
         <v>310.69431051108967</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="10"/>
+      <c r="G44">
+        <f t="shared" si="13"/>
         <v>310.69431051108967</v>
       </c>
-      <c r="H42" s="3">
-        <f t="shared" si="11"/>
+      <c r="H44" s="3">
+        <f t="shared" si="14"/>
         <v>4349.7203471552557</v>
       </c>
-      <c r="I42">
+      <c r="I44">
         <v>4069</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J44" s="2">
         <f t="shared" si="3"/>
         <v>-6.4537562130597328</v>
       </c>
-      <c r="K42" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L42" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1">
-        <v>100</v>
-      </c>
-      <c r="O42" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="K44" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1">
+        <v>100</v>
+      </c>
+      <c r="O44" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="B43">
+      <c r="B45">
         <v>10</v>
       </c>
-      <c r="D43">
+      <c r="D45">
+        <f t="shared" si="11"/>
+        <v>4.8216007714561235E-3</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="8"/>
-        <v>4.8216007714561235E-3</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="4"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="10"/>
+      <c r="G45">
+        <f t="shared" si="13"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="H43" s="3">
-        <f t="shared" si="11"/>
+      <c r="H45" s="3">
+        <f t="shared" si="14"/>
         <v>3954.2912246865963</v>
       </c>
-      <c r="I43">
+      <c r="I45">
         <v>3606</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J45" s="2">
         <f t="shared" si="3"/>
         <v>-8.8079305467492635</v>
       </c>
-      <c r="K43" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L43" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M43" s="1">
-        <v>1</v>
-      </c>
-      <c r="N43" s="1">
-        <v>100</v>
-      </c>
-      <c r="O43" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="K45" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1">
+        <v>100</v>
+      </c>
+      <c r="O45" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="B44">
+      <c r="B46">
         <v>10</v>
       </c>
-      <c r="D44">
+      <c r="D46">
+        <f t="shared" si="11"/>
+        <v>4.8216007714561235E-3</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="8"/>
-        <v>4.8216007714561235E-3</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="4"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="10"/>
+      <c r="G46">
+        <f t="shared" si="13"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="H44" s="3">
-        <f t="shared" si="11"/>
+      <c r="H46" s="3">
+        <f t="shared" si="14"/>
         <v>3954.2912246865963</v>
       </c>
-      <c r="I44">
+      <c r="I46">
         <v>3623</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J46" s="2">
         <f t="shared" si="3"/>
         <v>-8.3780178510461951</v>
       </c>
-      <c r="K44" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L44" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M44" s="1">
-        <v>1</v>
-      </c>
-      <c r="N44" s="1">
-        <v>100</v>
-      </c>
-      <c r="O44" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="K46" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1">
+        <v>100</v>
+      </c>
+      <c r="O46" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>54</v>
       </c>
-      <c r="B45">
-        <v>14</v>
-      </c>
-      <c r="D45">
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="11"/>
+        <v>6.7502410800385727E-3</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="8"/>
-        <v>6.7502410800385727E-3</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="4"/>
         <v>395.42912246865961</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="10"/>
+      <c r="G47">
+        <f t="shared" si="13"/>
         <v>395.42912246865961</v>
       </c>
-      <c r="H45" s="3">
-        <f t="shared" si="11"/>
+      <c r="H47" s="3">
+        <f t="shared" si="14"/>
         <v>5536.0077145612349</v>
       </c>
-      <c r="I45">
+      <c r="I47">
         <v>5259</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J47" s="2">
         <f t="shared" si="3"/>
         <v>-5.0037450965364059</v>
       </c>
-      <c r="K45" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L45" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M45" s="1">
-        <v>1</v>
-      </c>
-      <c r="N45" s="1">
-        <v>100</v>
-      </c>
-      <c r="O45" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="K47" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
+        <v>100</v>
+      </c>
+      <c r="O47" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>55</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="D46">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="11"/>
+        <v>4.8216007714561236E-4</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="8"/>
-        <v>4.8216007714561236E-4</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="4"/>
         <v>28.244937319189972</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="10"/>
+      <c r="G48">
+        <f t="shared" si="13"/>
         <v>28.244937319189972</v>
       </c>
-      <c r="H46" s="3">
-        <f t="shared" si="11"/>
+      <c r="H48" s="3">
+        <f t="shared" si="14"/>
         <v>395.42912246865961</v>
       </c>
-      <c r="I46">
+      <c r="I48">
         <v>350</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J48" s="2">
         <f t="shared" si="3"/>
         <v>-11.488562649368388</v>
       </c>
-      <c r="K46" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L46" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M46" s="1">
-        <v>1</v>
-      </c>
-      <c r="N46" s="1">
-        <v>100</v>
-      </c>
-      <c r="O46" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="K48" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>100</v>
+      </c>
+      <c r="O48" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B47">
+      <c r="B49">
         <v>5</v>
       </c>
-      <c r="D47">
+      <c r="D49">
+        <f t="shared" si="11"/>
+        <v>2.4108003857280617E-3</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="8"/>
-        <v>2.4108003857280617E-3</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="4"/>
         <v>141.22468659594986</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="10"/>
+      <c r="G49">
+        <f t="shared" si="13"/>
         <v>141.22468659594986</v>
       </c>
-      <c r="H47" s="3">
-        <f t="shared" si="11"/>
+      <c r="H49" s="3">
+        <f t="shared" si="14"/>
         <v>1977.1456123432981</v>
       </c>
-      <c r="I47">
+      <c r="I49">
         <v>1885</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J49" s="2">
         <f t="shared" si="3"/>
         <v>-4.6605374823196675</v>
       </c>
-      <c r="K47" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L47" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M47" s="1">
-        <v>1</v>
-      </c>
-      <c r="N47" s="1">
-        <v>100</v>
-      </c>
-      <c r="O47" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="K49" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1">
+        <v>100</v>
+      </c>
+      <c r="O49" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>57</v>
       </c>
-      <c r="B48">
+      <c r="B50">
         <v>10</v>
       </c>
-      <c r="D48">
+      <c r="D50">
+        <f t="shared" si="11"/>
+        <v>4.8216007714561235E-3</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="8"/>
-        <v>4.8216007714561235E-3</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="4"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="10"/>
+      <c r="G50">
+        <f t="shared" si="13"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="H48" s="3">
-        <f t="shared" si="11"/>
+      <c r="H50" s="3">
+        <f t="shared" si="14"/>
         <v>3954.2912246865963</v>
       </c>
-      <c r="I48">
+      <c r="I50">
         <v>3732</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J50" s="2">
         <f t="shared" si="3"/>
         <v>-5.6215188021265252</v>
       </c>
-      <c r="K48" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L48" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M48" s="1">
-        <v>1</v>
-      </c>
-      <c r="N48" s="1">
-        <v>100</v>
-      </c>
-      <c r="O48" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="K50" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>100</v>
+      </c>
+      <c r="O50" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>58</v>
       </c>
-      <c r="B49">
+      <c r="B51">
         <v>8</v>
       </c>
-      <c r="D49">
+      <c r="D51">
+        <f t="shared" si="11"/>
+        <v>3.8572806171648989E-3</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="8"/>
-        <v>3.8572806171648989E-3</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="4"/>
         <v>225.95949855351978</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="10"/>
+      <c r="G51">
+        <f t="shared" si="13"/>
         <v>225.95949855351978</v>
       </c>
-      <c r="H49" s="3">
-        <f t="shared" si="11"/>
+      <c r="H51" s="3">
+        <f t="shared" si="14"/>
         <v>3163.4329797492769</v>
       </c>
-      <c r="I49">
+      <c r="I51">
         <v>2976</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J51" s="2">
         <f t="shared" si="3"/>
         <v>-5.9249865873286875</v>
       </c>
-      <c r="K49" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L49" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M49" s="1">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1">
-        <v>100</v>
-      </c>
-      <c r="O49" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="K51" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1">
+        <v>100</v>
+      </c>
+      <c r="O51" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>59</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>2</v>
       </c>
-      <c r="D50">
+      <c r="D52">
+        <f t="shared" si="11"/>
+        <v>9.6432015429122472E-4</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
         <f t="shared" si="8"/>
-        <v>9.6432015429122472E-4</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="4"/>
         <v>56.489874638379945</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="10"/>
+      <c r="G52">
+        <f t="shared" si="13"/>
         <v>56.489874638379945</v>
       </c>
-      <c r="H50" s="3">
-        <f t="shared" si="11"/>
+      <c r="H52" s="3">
+        <f t="shared" si="14"/>
         <v>790.85824493731923</v>
       </c>
-      <c r="I50">
+      <c r="I52">
         <v>753</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J52" s="2">
         <f t="shared" si="3"/>
         <v>-4.7869823928205673</v>
       </c>
-      <c r="K50" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L50" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M50" s="1">
-        <v>1</v>
-      </c>
-      <c r="N50" s="1">
-        <v>100</v>
-      </c>
-      <c r="O50" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="K52" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L52" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1">
+        <v>100</v>
+      </c>
+      <c r="O52" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B51">
+      <c r="B53">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="D53">
+        <f t="shared" si="11"/>
+        <v>1.9286403085824494E-3</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F53">
         <f t="shared" si="8"/>
-        <v>1.9286403085824494E-3</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="4"/>
         <v>112.97974927675989</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="10"/>
+      <c r="G53">
+        <f t="shared" si="13"/>
         <v>112.97974927675989</v>
       </c>
-      <c r="H51" s="3">
-        <f t="shared" si="11"/>
+      <c r="H53" s="3">
+        <f t="shared" si="14"/>
         <v>1581.7164898746385</v>
       </c>
-      <c r="I51">
+      <c r="I53">
         <v>1509</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J53" s="2">
         <f t="shared" si="3"/>
         <v>-4.5973150270692136</v>
       </c>
-      <c r="K51" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L51" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M51" s="1">
-        <v>1</v>
-      </c>
-      <c r="N51" s="1">
-        <v>100</v>
-      </c>
-      <c r="O51" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="K53" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L53" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1">
+        <v>100</v>
+      </c>
+      <c r="O53" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B52">
+      <c r="B54">
         <v>25</v>
       </c>
-      <c r="D52">
+      <c r="D54">
+        <f t="shared" si="11"/>
+        <v>1.2054001928640309E-2</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
         <f t="shared" si="8"/>
-        <v>1.2054001928640309E-2</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="4"/>
         <v>706.12343297974928</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="10"/>
+      <c r="G54">
+        <f t="shared" si="13"/>
         <v>706.12343297974928</v>
       </c>
-      <c r="H52" s="3">
-        <f t="shared" si="11"/>
+      <c r="H54" s="3">
+        <f t="shared" si="14"/>
         <v>9885.7280617164906</v>
       </c>
-      <c r="I52">
+      <c r="I54">
         <v>9197</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J54" s="2">
         <f t="shared" si="3"/>
         <v>-6.966892649856125</v>
       </c>
-      <c r="K52" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L52" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M52" s="1">
-        <v>1</v>
-      </c>
-      <c r="N52" s="1">
-        <v>100</v>
-      </c>
-      <c r="O52" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="K54" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1">
+        <v>100</v>
+      </c>
+      <c r="O54" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>62</v>
       </c>
-      <c r="B53">
+      <c r="B55">
         <v>6</v>
       </c>
-      <c r="D53">
+      <c r="D55">
+        <f t="shared" si="11"/>
+        <v>2.8929604628736743E-3</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="8"/>
-        <v>2.8929604628736743E-3</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="4"/>
         <v>169.46962391513983</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="10"/>
+      <c r="G55">
+        <f t="shared" si="13"/>
         <v>169.46962391513983</v>
       </c>
-      <c r="H53" s="3">
-        <f t="shared" si="11"/>
+      <c r="H55" s="3">
+        <f t="shared" si="14"/>
         <v>2372.5747348119576</v>
       </c>
-      <c r="I53">
+      <c r="I55">
         <v>2266</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J55" s="2">
         <f t="shared" si="3"/>
         <v>-4.4919442683184574</v>
       </c>
-      <c r="K53" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L53" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M53" s="1">
-        <v>1</v>
-      </c>
-      <c r="N53" s="1">
-        <v>100</v>
-      </c>
-      <c r="O53" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="K55" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+      <c r="N55" s="1">
+        <v>100</v>
+      </c>
+      <c r="O55" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B54">
+      <c r="B56">
         <v>59</v>
       </c>
-      <c r="D54">
+      <c r="D56">
+        <f t="shared" si="11"/>
+        <v>2.8447444551591129E-2</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="8"/>
-        <v>2.8447444551591129E-2</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="4"/>
         <v>1666.4513018322084</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="10"/>
+      <c r="G56">
+        <f t="shared" si="13"/>
         <v>1666.4513018322084</v>
       </c>
-      <c r="H54" s="3">
-        <f t="shared" si="11"/>
+      <c r="H56" s="3">
+        <f t="shared" si="14"/>
         <v>23330.318225650917</v>
       </c>
-      <c r="I54">
+      <c r="I56">
         <v>22116</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J56" s="2">
         <f t="shared" si="3"/>
         <v>-5.2048935376964307</v>
       </c>
-      <c r="K54" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L54" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M54" s="1">
-        <v>1</v>
-      </c>
-      <c r="N54" s="1">
-        <v>100</v>
-      </c>
-      <c r="O54" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="K56" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1">
+        <v>100</v>
+      </c>
+      <c r="O56" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>64</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>2</v>
       </c>
-      <c r="D55">
+      <c r="D57">
+        <f t="shared" si="11"/>
+        <v>9.6432015429122472E-4</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="8"/>
-        <v>9.6432015429122472E-4</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="4"/>
         <v>56.489874638379945</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="10"/>
+      <c r="G57">
+        <f t="shared" si="13"/>
         <v>56.489874638379945</v>
       </c>
-      <c r="H55" s="3">
-        <f t="shared" si="11"/>
+      <c r="H57" s="3">
+        <f t="shared" si="14"/>
         <v>790.85824493731923</v>
       </c>
-      <c r="I55">
+      <c r="I57">
         <v>749</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J57" s="2">
         <f t="shared" si="3"/>
         <v>-5.2927620348241762</v>
       </c>
-      <c r="K55" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L55" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M55" s="1">
-        <v>1</v>
-      </c>
-      <c r="N55" s="1">
-        <v>100</v>
-      </c>
-      <c r="O55" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="K57" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M57" s="1">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1">
+        <v>100</v>
+      </c>
+      <c r="O57" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>65</v>
       </c>
-      <c r="B56">
+      <c r="B58">
         <v>20</v>
       </c>
-      <c r="D56">
+      <c r="D58">
+        <f t="shared" si="11"/>
+        <v>9.643201542912247E-3</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
         <f t="shared" si="8"/>
-        <v>9.643201542912247E-3</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="4"/>
         <v>564.89874638379945</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="10"/>
+      <c r="G58">
+        <f t="shared" si="13"/>
         <v>564.89874638379945</v>
       </c>
-      <c r="H56" s="3">
-        <f t="shared" si="11"/>
+      <c r="H58" s="3">
+        <f t="shared" si="14"/>
         <v>7908.5824493731925</v>
       </c>
-      <c r="I56">
+      <c r="I58">
         <v>7410</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J58" s="2">
         <f t="shared" si="3"/>
         <v>-6.3043213188313976</v>
       </c>
-      <c r="K56" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L56" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M56" s="1">
-        <v>1</v>
-      </c>
-      <c r="N56" s="1">
-        <v>100</v>
-      </c>
-      <c r="O56" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="K58" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>100</v>
+      </c>
+      <c r="O58" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>66</v>
       </c>
-      <c r="B57">
+      <c r="B59">
         <v>15</v>
       </c>
-      <c r="D57">
+      <c r="D59">
+        <f t="shared" si="11"/>
+        <v>7.2324011571841852E-3</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
         <f t="shared" si="8"/>
-        <v>7.2324011571841852E-3</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="4"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="10"/>
+      <c r="G59">
+        <f t="shared" si="13"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="H57" s="3">
-        <f t="shared" si="11"/>
+      <c r="H59" s="3">
+        <f t="shared" si="14"/>
         <v>5931.4368370298935</v>
       </c>
-      <c r="I57">
+      <c r="I59">
         <v>5440</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J59" s="2">
         <f t="shared" si="3"/>
         <v>-8.2852915833455185</v>
       </c>
-      <c r="K57" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L57" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M57" s="1">
-        <v>1</v>
-      </c>
-      <c r="N57" s="1">
-        <v>100</v>
-      </c>
-      <c r="O57" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="K59" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1">
+        <v>100</v>
+      </c>
+      <c r="O59" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>67</v>
       </c>
-      <c r="B58">
+      <c r="B60">
         <v>20</v>
       </c>
-      <c r="D58">
+      <c r="D60">
+        <f t="shared" si="11"/>
+        <v>9.643201542912247E-3</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
         <f t="shared" si="8"/>
-        <v>9.643201542912247E-3</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="4"/>
         <v>564.89874638379945</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="10"/>
+      <c r="G60">
+        <f t="shared" si="13"/>
         <v>564.89874638379945</v>
       </c>
-      <c r="H58" s="3">
-        <f t="shared" si="11"/>
+      <c r="H60" s="3">
+        <f t="shared" si="14"/>
         <v>7908.5824493731925</v>
       </c>
-      <c r="I58">
+      <c r="I60">
         <v>7431</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J60" s="2">
         <f t="shared" si="3"/>
         <v>-6.0387870067795033</v>
       </c>
-      <c r="K58" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L58" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M58" s="1">
-        <v>1</v>
-      </c>
-      <c r="N58" s="1">
-        <v>100</v>
-      </c>
-      <c r="O58" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="K60" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1">
+        <v>100</v>
+      </c>
+      <c r="O60" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>68</v>
       </c>
-      <c r="B59">
+      <c r="B61">
         <v>2</v>
       </c>
-      <c r="D59">
+      <c r="D61">
+        <f t="shared" si="11"/>
+        <v>9.6432015429122472E-4</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
         <f t="shared" si="8"/>
-        <v>9.6432015429122472E-4</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="4"/>
         <v>56.489874638379945</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="10"/>
+      <c r="G61">
+        <f t="shared" si="13"/>
         <v>56.489874638379945</v>
       </c>
-      <c r="H59" s="3">
-        <f t="shared" si="11"/>
+      <c r="H61" s="3">
+        <f t="shared" si="14"/>
         <v>790.85824493731923</v>
       </c>
-      <c r="I59">
+      <c r="I61">
         <v>727</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J61" s="2">
         <f t="shared" si="3"/>
         <v>-8.0745500658440275</v>
       </c>
-      <c r="K59" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L59" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M59" s="1">
-        <v>1</v>
-      </c>
-      <c r="N59" s="1">
-        <v>100</v>
-      </c>
-      <c r="O59" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="K61" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>100</v>
+      </c>
+      <c r="O61" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>69</v>
       </c>
-      <c r="B60">
+      <c r="B62">
         <v>12</v>
       </c>
-      <c r="D60">
+      <c r="D62">
+        <f t="shared" si="11"/>
+        <v>5.7859209257473485E-3</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
         <f t="shared" si="8"/>
-        <v>5.7859209257473485E-3</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="4"/>
         <v>338.93924783027967</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="10"/>
+      <c r="G62">
+        <f t="shared" si="13"/>
         <v>338.93924783027967</v>
       </c>
-      <c r="H60" s="3">
-        <f t="shared" si="11"/>
+      <c r="H62" s="3">
+        <f t="shared" si="14"/>
         <v>4745.1494696239151</v>
       </c>
-      <c r="I60">
+      <c r="I62">
         <v>4477</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J62" s="2">
         <f t="shared" si="3"/>
         <v>-5.6510226145767284</v>
       </c>
-      <c r="K60" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L60" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M60" s="1">
-        <v>1</v>
-      </c>
-      <c r="N60" s="1">
-        <v>100</v>
-      </c>
-      <c r="O60" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="K62" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>100</v>
+      </c>
+      <c r="O62" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>70</v>
       </c>
-      <c r="B61">
+      <c r="B63">
         <v>2</v>
       </c>
-      <c r="D61">
+      <c r="D63">
+        <f t="shared" si="11"/>
+        <v>9.6432015429122472E-4</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F63">
         <f t="shared" si="8"/>
-        <v>9.6432015429122472E-4</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="4"/>
         <v>56.489874638379945</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="10"/>
+      <c r="G63">
+        <f t="shared" si="13"/>
         <v>56.489874638379945</v>
       </c>
-      <c r="H61" s="3">
-        <f t="shared" si="11"/>
+      <c r="H63" s="3">
+        <f t="shared" si="14"/>
         <v>790.85824493731923</v>
       </c>
-      <c r="I61">
+      <c r="I63">
         <v>765</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J63" s="2">
         <f t="shared" si="3"/>
         <v>-3.2696434668097401</v>
       </c>
-      <c r="K61" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L61" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M61" s="1">
-        <v>1</v>
-      </c>
-      <c r="N61" s="1">
-        <v>100</v>
-      </c>
-      <c r="O61" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="K63" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M63" s="1">
+        <v>1</v>
+      </c>
+      <c r="N63" s="1">
+        <v>100</v>
+      </c>
+      <c r="O63" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>71</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="D62">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="11"/>
+        <v>4.8216007714561236E-4</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F64">
         <f t="shared" si="8"/>
-        <v>4.8216007714561236E-4</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="4"/>
         <v>28.244937319189972</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="10"/>
+      <c r="G64">
+        <f t="shared" si="13"/>
         <v>28.244937319189972</v>
       </c>
-      <c r="H62" s="3">
-        <f t="shared" si="11"/>
+      <c r="H64" s="3">
+        <f t="shared" si="14"/>
         <v>395.42912246865961</v>
       </c>
-      <c r="I62">
+      <c r="I64">
         <v>390</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J64" s="2">
         <f t="shared" si="3"/>
         <v>-1.3729698092962053</v>
       </c>
-      <c r="K62" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L62" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M62" s="1">
-        <v>1</v>
-      </c>
-      <c r="N62" s="1">
-        <v>100</v>
-      </c>
-      <c r="O62" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="8"/>
-        <v>4.8216007714561236E-4</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="4"/>
-        <v>28.244937319189972</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="10"/>
-        <v>28.244937319189972</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="11"/>
-        <v>395.42912246865961</v>
-      </c>
-      <c r="I63">
-        <v>381</v>
-      </c>
-      <c r="J63" s="2">
-        <f t="shared" ref="J63:J126" si="12">((I63-H63)/H63)*100</f>
-        <v>-3.648978198312447</v>
-      </c>
-      <c r="K63" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L63" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M63" s="1">
-        <v>1</v>
-      </c>
-      <c r="N63" s="1">
-        <v>100</v>
-      </c>
-      <c r="O63" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>73</v>
-      </c>
-      <c r="B64">
-        <v>166</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="8"/>
-        <v>8.0038572806171646E-2</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <f t="shared" ref="F64:F127" si="13">D64*((K64+L64)/2)*((M64+N64))/2</f>
-        <v>4688.6595949855346</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="10"/>
-        <v>4688.6595949855346</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="11"/>
-        <v>65641.234329797488</v>
-      </c>
-      <c r="I64">
-        <v>61445</v>
-      </c>
-      <c r="J64" s="2">
-        <f t="shared" si="12"/>
-        <v>-6.3926804129163521</v>
-      </c>
       <c r="K64" s="1">
         <v>1180</v>
       </c>
@@ -3878,619 +3918,637 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="11"/>
+        <v>4.8216007714561236E-4</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="8"/>
+        <v>28.244937319189972</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="13"/>
+        <v>28.244937319189972</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="14"/>
+        <v>395.42912246865961</v>
+      </c>
+      <c r="I65">
+        <v>381</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" ref="J65:J128" si="15">((I65-H65)/H65)*100</f>
+        <v>-3.648978198312447</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M65" s="1">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1">
+        <v>100</v>
+      </c>
+      <c r="O65" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66">
+        <v>166</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="11"/>
+        <v>8.0038572806171646E-2</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:F129" si="16">D66*((K66+L66)/2)*((M66+N66))/2</f>
+        <v>4688.6595949855346</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="13"/>
+        <v>4688.6595949855346</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="14"/>
+        <v>65641.234329797488</v>
+      </c>
+      <c r="I66">
+        <v>61445</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.3926804129163521</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+      <c r="N66" s="1">
+        <v>100</v>
+      </c>
+      <c r="O66" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>74</v>
       </c>
-      <c r="B65">
+      <c r="B67">
         <v>6</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="8"/>
+      <c r="D67">
+        <f t="shared" si="11"/>
         <v>2.8929604628736743E-3</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F65">
+      <c r="E67">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="16"/>
+        <v>169.46962391513983</v>
+      </c>
+      <c r="G67">
         <f t="shared" si="13"/>
         <v>169.46962391513983</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="10"/>
-        <v>169.46962391513983</v>
-      </c>
-      <c r="H65" s="3">
+      <c r="H67" s="3">
+        <f t="shared" si="14"/>
+        <v>2372.5747348119576</v>
+      </c>
+      <c r="I67">
+        <v>2264</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" si="15"/>
+        <v>-4.5762408753190593</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1">
+        <v>100</v>
+      </c>
+      <c r="O67" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="D68">
         <f t="shared" si="11"/>
-        <v>2372.5747348119576</v>
-      </c>
-      <c r="I65">
-        <v>2264</v>
-      </c>
-      <c r="J65" s="2">
+        <v>5.7859209257473485E-3</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="12"/>
-        <v>-4.5762408753190593</v>
-      </c>
-      <c r="K65" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L65" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M65" s="1">
-        <v>1</v>
-      </c>
-      <c r="N65" s="1">
-        <v>100</v>
-      </c>
-      <c r="O65" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66">
-        <v>12</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="8"/>
-        <v>5.7859209257473485E-3</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="16"/>
+        <v>338.93924783027967</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="13"/>
         <v>338.93924783027967</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="10"/>
-        <v>338.93924783027967</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="H68" s="3">
+        <f t="shared" si="14"/>
+        <v>4745.1494696239151</v>
+      </c>
+      <c r="I68">
+        <v>4419</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.8733234160854515</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M68" s="1">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1">
+        <v>100</v>
+      </c>
+      <c r="O68" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69">
+        <v>45</v>
+      </c>
+      <c r="D69">
         <f t="shared" si="11"/>
-        <v>4745.1494696239151</v>
-      </c>
-      <c r="I66">
-        <v>4419</v>
-      </c>
-      <c r="J66" s="2">
+        <v>2.1697203471552556E-2</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="12"/>
-        <v>-6.8733234160854515</v>
-      </c>
-      <c r="K66" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L66" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M66" s="1">
-        <v>1</v>
-      </c>
-      <c r="N66" s="1">
-        <v>100</v>
-      </c>
-      <c r="O66" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67">
-        <v>45</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="8"/>
-        <v>2.1697203471552556E-2</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="16"/>
+        <v>1271.0221793635487</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="13"/>
         <v>1271.0221793635487</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="10"/>
-        <v>1271.0221793635487</v>
-      </c>
-      <c r="H67" s="3">
+      <c r="H69" s="3">
+        <f t="shared" si="14"/>
+        <v>17794.310511089683</v>
+      </c>
+      <c r="I69">
+        <v>16639</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.4925837411327416</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M69" s="1">
+        <v>1</v>
+      </c>
+      <c r="N69" s="1">
+        <v>100</v>
+      </c>
+      <c r="O69" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="D70">
         <f t="shared" si="11"/>
-        <v>17794.310511089683</v>
-      </c>
-      <c r="I67">
-        <v>16639</v>
-      </c>
-      <c r="J67" s="2">
+        <v>4.8216007714561235E-3</v>
+      </c>
+      <c r="E70">
         <f t="shared" si="12"/>
-        <v>-6.4925837411327416</v>
-      </c>
-      <c r="K67" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L67" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M67" s="1">
-        <v>1</v>
-      </c>
-      <c r="N67" s="1">
-        <v>100</v>
-      </c>
-      <c r="O67" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="8"/>
-        <v>4.8216007714561235E-3</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="16"/>
+        <v>282.44937319189972</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="13"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="10"/>
-        <v>282.44937319189972</v>
-      </c>
-      <c r="H68" s="3">
+      <c r="H70" s="3">
+        <f t="shared" si="14"/>
+        <v>3954.2912246865963</v>
+      </c>
+      <c r="I70">
+        <v>3614</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="15"/>
+        <v>-8.6056186899478195</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L70" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1</v>
+      </c>
+      <c r="N70" s="1">
+        <v>100</v>
+      </c>
+      <c r="O70" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71">
+        <v>15</v>
+      </c>
+      <c r="D71">
         <f t="shared" si="11"/>
-        <v>3954.2912246865963</v>
-      </c>
-      <c r="I68">
-        <v>3614</v>
-      </c>
-      <c r="J68" s="2">
+        <v>7.2324011571841852E-3</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="12"/>
-        <v>-8.6056186899478195</v>
-      </c>
-      <c r="K68" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L68" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M68" s="1">
-        <v>1</v>
-      </c>
-      <c r="N68" s="1">
-        <v>100</v>
-      </c>
-      <c r="O68" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69">
-        <v>15</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="8"/>
-        <v>7.2324011571841852E-3</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="16"/>
+        <v>423.67405978784956</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="13"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="10"/>
-        <v>423.67405978784956</v>
-      </c>
-      <c r="H69" s="3">
+      <c r="H71" s="3">
+        <f t="shared" si="14"/>
+        <v>5931.4368370298935</v>
+      </c>
+      <c r="I71">
+        <v>5606</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.4866442309255481</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1</v>
+      </c>
+      <c r="N71" s="1">
+        <v>100</v>
+      </c>
+      <c r="O71" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="D72">
         <f t="shared" si="11"/>
-        <v>5931.4368370298935</v>
-      </c>
-      <c r="I69">
-        <v>5606</v>
-      </c>
-      <c r="J69" s="2">
+        <v>4.8216007714561236E-4</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="12"/>
-        <v>-5.4866442309255481</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L69" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M69" s="1">
-        <v>1</v>
-      </c>
-      <c r="N69" s="1">
-        <v>100</v>
-      </c>
-      <c r="O69" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="8"/>
-        <v>4.8216007714561236E-4</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="16"/>
+        <v>28.244937319189972</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="13"/>
         <v>28.244937319189972</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="10"/>
-        <v>28.244937319189972</v>
-      </c>
-      <c r="H70" s="3">
+      <c r="H72" s="3">
+        <f t="shared" si="14"/>
+        <v>395.42912246865961</v>
+      </c>
+      <c r="I72">
+        <v>375</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" si="15"/>
+        <v>-5.1663171243232737</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L72" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M72" s="1">
+        <v>1</v>
+      </c>
+      <c r="N72" s="1">
+        <v>100</v>
+      </c>
+      <c r="O72" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="D73">
         <f t="shared" si="11"/>
-        <v>395.42912246865961</v>
-      </c>
-      <c r="I70">
-        <v>375</v>
-      </c>
-      <c r="J70" s="2">
+        <v>4.8216007714561235E-3</v>
+      </c>
+      <c r="E73">
         <f t="shared" si="12"/>
-        <v>-5.1663171243232737</v>
-      </c>
-      <c r="K70" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L70" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M70" s="1">
-        <v>1</v>
-      </c>
-      <c r="N70" s="1">
-        <v>100</v>
-      </c>
-      <c r="O70" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71">
-        <v>10</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="8"/>
-        <v>4.8216007714561235E-3</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="16"/>
+        <v>282.44937319189972</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="13"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="10"/>
-        <v>282.44937319189972</v>
-      </c>
-      <c r="H71" s="3">
+      <c r="H73" s="3">
+        <f t="shared" si="14"/>
+        <v>3954.2912246865963</v>
+      </c>
+      <c r="I73">
+        <v>3680</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.9365458713359089</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L73" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M73" s="1">
+        <v>1</v>
+      </c>
+      <c r="N73" s="1">
+        <v>100</v>
+      </c>
+      <c r="O73" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="D74">
         <f t="shared" si="11"/>
-        <v>3954.2912246865963</v>
-      </c>
-      <c r="I71">
-        <v>3680</v>
-      </c>
-      <c r="J71" s="2">
+        <v>2.4108003857280617E-3</v>
+      </c>
+      <c r="E74">
         <f t="shared" si="12"/>
-        <v>-6.9365458713359089</v>
-      </c>
-      <c r="K71" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L71" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M71" s="1">
-        <v>1</v>
-      </c>
-      <c r="N71" s="1">
-        <v>100</v>
-      </c>
-      <c r="O71" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>81</v>
-      </c>
-      <c r="B72">
-        <v>5</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="8"/>
-        <v>2.4108003857280617E-3</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="16"/>
+        <v>141.22468659594986</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="13"/>
         <v>141.22468659594986</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="10"/>
-        <v>141.22468659594986</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H74" s="3">
+        <f t="shared" si="14"/>
+        <v>1977.1456123432981</v>
+      </c>
+      <c r="I74">
+        <v>1905</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="15"/>
+        <v>-3.6489781983124496</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L74" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1">
+        <v>100</v>
+      </c>
+      <c r="O74" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="11"/>
-        <v>1977.1456123432981</v>
-      </c>
-      <c r="I72">
-        <v>1905</v>
-      </c>
-      <c r="J72" s="2">
+        <v>4.8216007714561235E-3</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="12"/>
-        <v>-3.6489781983124496</v>
-      </c>
-      <c r="K72" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L72" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M72" s="1">
-        <v>1</v>
-      </c>
-      <c r="N72" s="1">
-        <v>100</v>
-      </c>
-      <c r="O72" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73">
-        <v>10</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="8"/>
-        <v>4.8216007714561235E-3</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="16"/>
+        <v>282.44937319189972</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="13"/>
         <v>282.44937319189972</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="10"/>
-        <v>282.44937319189972</v>
-      </c>
-      <c r="H73" s="3">
+      <c r="H75" s="3">
+        <f t="shared" si="14"/>
+        <v>3954.2912246865963</v>
+      </c>
+      <c r="I75">
+        <v>3714</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="15"/>
+        <v>-6.076720479929774</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M75" s="1">
+        <v>1</v>
+      </c>
+      <c r="N75" s="1">
+        <v>100</v>
+      </c>
+      <c r="O75" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76">
+        <v>15</v>
+      </c>
+      <c r="D76">
         <f t="shared" si="11"/>
-        <v>3954.2912246865963</v>
-      </c>
-      <c r="I73">
-        <v>3714</v>
-      </c>
-      <c r="J73" s="2">
+        <v>7.2324011571841852E-3</v>
+      </c>
+      <c r="E76">
         <f t="shared" si="12"/>
-        <v>-6.076720479929774</v>
-      </c>
-      <c r="K73" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L73" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M73" s="1">
-        <v>1</v>
-      </c>
-      <c r="N73" s="1">
-        <v>100</v>
-      </c>
-      <c r="O73" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>83</v>
-      </c>
-      <c r="B74">
-        <v>15</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="8"/>
-        <v>7.2324011571841852E-3</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="16"/>
+        <v>423.67405978784956</v>
+      </c>
+      <c r="G76">
         <f t="shared" si="13"/>
         <v>423.67405978784956</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="10"/>
-        <v>423.67405978784956</v>
-      </c>
-      <c r="H74" s="3">
+      <c r="H76" s="3">
+        <f t="shared" si="14"/>
+        <v>5931.4368370298935</v>
+      </c>
+      <c r="I76">
+        <v>5512</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="15"/>
+        <v>-7.0714204425368576</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L76" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M76" s="1">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1">
+        <v>100</v>
+      </c>
+      <c r="O76" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77">
+        <v>11</v>
+      </c>
+      <c r="D77">
         <f t="shared" si="11"/>
-        <v>5931.4368370298935</v>
-      </c>
-      <c r="I74">
-        <v>5512</v>
-      </c>
-      <c r="J74" s="2">
+        <v>5.303760848601736E-3</v>
+      </c>
+      <c r="E77">
         <f t="shared" si="12"/>
-        <v>-7.0714204425368576</v>
-      </c>
-      <c r="K74" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L74" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M74" s="1">
-        <v>1</v>
-      </c>
-      <c r="N74" s="1">
-        <v>100</v>
-      </c>
-      <c r="O74" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>84</v>
-      </c>
-      <c r="B75">
-        <v>11</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="8"/>
-        <v>5.303760848601736E-3</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="16"/>
+        <v>310.69431051108967</v>
+      </c>
+      <c r="G77">
         <f t="shared" si="13"/>
         <v>310.69431051108967</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="10"/>
-        <v>310.69431051108967</v>
-      </c>
-      <c r="H75" s="3">
-        <f t="shared" si="11"/>
+      <c r="H77" s="3">
+        <f t="shared" si="14"/>
         <v>4349.7203471552557</v>
       </c>
-      <c r="I75">
+      <c r="I77">
         <v>4002</v>
       </c>
-      <c r="J75" s="2">
-        <f t="shared" si="12"/>
+      <c r="J77" s="2">
+        <f t="shared" si="15"/>
         <v>-7.9940851227979977</v>
-      </c>
-      <c r="K75" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L75" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M75" s="1">
-        <v>1</v>
-      </c>
-      <c r="N75" s="1">
-        <v>100</v>
-      </c>
-      <c r="O75" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K76" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L76" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M76" s="1">
-        <v>1</v>
-      </c>
-      <c r="N76" s="1">
-        <v>100</v>
-      </c>
-      <c r="O76" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D77">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="K77" s="1">
         <v>1180</v>
@@ -4510,27 +4568,27 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F78">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H78" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J78" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K78" s="1">
@@ -4551,27 +4609,27 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H79" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J79" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K79" s="1">
@@ -4592,27 +4650,27 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F80">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H80" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J80" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K80" s="1">
@@ -4633,27 +4691,27 @@
     </row>
     <row r="81" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J81" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K81" s="1">
@@ -4674,27 +4732,27 @@
     </row>
     <row r="82" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F82">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G82">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H82" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J82" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K82" s="1">
@@ -4715,27 +4773,27 @@
     </row>
     <row r="83" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F83">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G83">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J83" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K83" s="1">
@@ -4756,27 +4814,27 @@
     </row>
     <row r="84" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F84">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G84">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H84" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J84" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K84" s="1">
@@ -4797,27 +4855,27 @@
     </row>
     <row r="85" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F85">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G85">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H85" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J85" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K85" s="1">
@@ -4838,27 +4896,27 @@
     </row>
     <row r="86" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F86">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H86" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J86" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K86" s="1">
@@ -4879,27 +4937,27 @@
     </row>
     <row r="87" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F87">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G87">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H87" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J87" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K87" s="1">
@@ -4920,27 +4978,27 @@
     </row>
     <row r="88" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F88">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G88">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H88" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J88" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K88" s="1">
@@ -4961,27 +5019,27 @@
     </row>
     <row r="89" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F89">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J89" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K89" s="1">
@@ -5002,27 +5060,27 @@
     </row>
     <row r="90" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G90">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G90">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H90" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J90" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K90" s="1">
@@ -5043,27 +5101,27 @@
     </row>
     <row r="91" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F91">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G91">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J91" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K91" s="1">
@@ -5084,27 +5142,27 @@
     </row>
     <row r="92" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F92">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G92">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H92" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J92" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K92" s="1">
@@ -5125,27 +5183,27 @@
     </row>
     <row r="93" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F93">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G93">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H93" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J93" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K93" s="1">
@@ -5166,27 +5224,27 @@
     </row>
     <row r="94" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F94">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J94" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K94" s="1">
@@ -5207,27 +5265,27 @@
     </row>
     <row r="95" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F95">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G95">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H95" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J95" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K95" s="1">
@@ -5248,27 +5306,27 @@
     </row>
     <row r="96" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F96">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G96">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J96" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K96" s="1">
@@ -5289,27 +5347,27 @@
     </row>
     <row r="97" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F97">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G97">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H97" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J97" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K97" s="1">
@@ -5330,27 +5388,27 @@
     </row>
     <row r="98" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F98">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G98">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H98" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J98" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K98" s="1">
@@ -5371,27 +5429,27 @@
     </row>
     <row r="99" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F99">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G99">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="H99" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J99" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K99" s="1">
@@ -5412,27 +5470,27 @@
     </row>
     <row r="100" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D100">
-        <f t="shared" ref="D100:D158" si="14">B100/2074</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" ref="E100:E158" si="15">C100*((K100+L100)/2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F100">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G100">
-        <f t="shared" ref="G100:G158" si="16">F100+E100</f>
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <f t="shared" ref="H100:H158" si="17">G100*O100</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J100" s="2" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K100" s="1">
@@ -5453,27 +5511,27 @@
     </row>
     <row r="101" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D101">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E101">
+      <c r="J101" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K101" s="1">
@@ -5494,27 +5552,27 @@
     </row>
     <row r="102" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D102">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D102:D160" si="17">B102/2074</f>
         <v>0</v>
       </c>
       <c r="E102">
+        <f t="shared" ref="E102:E160" si="18">C102*((K102+L102)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ref="G102:G160" si="19">F102+E102</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" ref="H102:H160" si="20">G102*O102</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K102" s="1">
@@ -5535,27 +5593,27 @@
     </row>
     <row r="103" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E103">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H103" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K103" s="1">
@@ -5576,27 +5634,27 @@
     </row>
     <row r="104" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E104">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H104" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K104" s="1">
@@ -5617,27 +5675,27 @@
     </row>
     <row r="105" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E105">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H105" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K105" s="1">
@@ -5658,27 +5716,27 @@
     </row>
     <row r="106" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E106">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H106" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K106" s="1">
@@ -5699,27 +5757,27 @@
     </row>
     <row r="107" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E107">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K107" s="1">
@@ -5740,27 +5798,27 @@
     </row>
     <row r="108" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E108">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K108" s="1">
@@ -5781,27 +5839,27 @@
     </row>
     <row r="109" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E109">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H109" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K109" s="1">
@@ -5822,27 +5880,27 @@
     </row>
     <row r="110" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E110">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H110" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K110" s="1">
@@ -5863,27 +5921,27 @@
     </row>
     <row r="111" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E111">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K111" s="1">
@@ -5904,27 +5962,27 @@
     </row>
     <row r="112" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E112">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H112" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K112" s="1">
@@ -5945,27 +6003,27 @@
     </row>
     <row r="113" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E113">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K113" s="1">
@@ -5986,27 +6044,27 @@
     </row>
     <row r="114" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E114">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H114" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K114" s="1">
@@ -6027,27 +6085,27 @@
     </row>
     <row r="115" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E115">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H115" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K115" s="1">
@@ -6068,27 +6126,27 @@
     </row>
     <row r="116" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E116">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H116" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K116" s="1">
@@ -6109,27 +6167,27 @@
     </row>
     <row r="117" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E117">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H117" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K117" s="1">
@@ -6150,27 +6208,27 @@
     </row>
     <row r="118" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E118">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H118" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K118" s="1">
@@ -6191,27 +6249,27 @@
     </row>
     <row r="119" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E119">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H119" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K119" s="1">
@@ -6232,27 +6290,27 @@
     </row>
     <row r="120" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E120">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H120" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H120" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K120" s="1">
@@ -6273,27 +6331,27 @@
     </row>
     <row r="121" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E121">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H121" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K121" s="1">
@@ -6314,27 +6372,27 @@
     </row>
     <row r="122" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D122">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E122">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H122" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K122" s="1">
@@ -6355,27 +6413,27 @@
     </row>
     <row r="123" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E123">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H123" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K123" s="1">
@@ -6396,27 +6454,27 @@
     </row>
     <row r="124" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D124">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E124">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H124" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K124" s="1">
@@ -6437,27 +6495,27 @@
     </row>
     <row r="125" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E125">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H125" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K125" s="1">
@@ -6478,27 +6536,27 @@
     </row>
     <row r="126" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E126">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H126" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="e">
-        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K126" s="1">
@@ -6519,27 +6577,27 @@
     </row>
     <row r="127" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E127">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H127" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="e">
-        <f t="shared" ref="J127:J158" si="18">((I127-H127)/H127)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K127" s="1">
@@ -6560,27 +6618,27 @@
     </row>
     <row r="128" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E128">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H128" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="e">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <f t="shared" ref="F128:F158" si="19">D128*((K128+L128)/2)*((M128+N128))/2</f>
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H128" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="e">
-        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K128" s="1">
@@ -6601,27 +6659,27 @@
     </row>
     <row r="129" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F129">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G129">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H129" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J129" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="J129:J160" si="21">((I129-H129)/H129)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K129" s="1">
@@ -6642,27 +6700,27 @@
     </row>
     <row r="130" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F130">
+        <f t="shared" ref="F130:F160" si="22">D130*((K130+L130)/2)*((M130+N130))/2</f>
+        <v>0</v>
+      </c>
+      <c r="G130">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G130">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H130" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J130" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K130" s="1">
@@ -6683,27 +6741,27 @@
     </row>
     <row r="131" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D131">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F131">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G131">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G131">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H131" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J131" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K131" s="1">
@@ -6724,27 +6782,27 @@
     </row>
     <row r="132" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F132">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G132">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G132">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H132" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J132" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K132" s="1">
@@ -6765,27 +6823,27 @@
     </row>
     <row r="133" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F133">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G133">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H133" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J133" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K133" s="1">
@@ -6806,27 +6864,27 @@
     </row>
     <row r="134" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F134">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G134">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H134" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J134" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K134" s="1">
@@ -6847,27 +6905,27 @@
     </row>
     <row r="135" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F135">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G135">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G135">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H135" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J135" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K135" s="1">
@@ -6888,27 +6946,27 @@
     </row>
     <row r="136" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F136">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G136">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G136">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H136" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J136" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K136" s="1">
@@ -6929,27 +6987,27 @@
     </row>
     <row r="137" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F137">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G137">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G137">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H137" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J137" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K137" s="1">
@@ -6970,27 +7028,27 @@
     </row>
     <row r="138" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F138">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G138">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G138">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H138" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J138" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K138" s="1">
@@ -7011,27 +7069,27 @@
     </row>
     <row r="139" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F139">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G139">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G139">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H139" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J139" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K139" s="1">
@@ -7052,27 +7110,27 @@
     </row>
     <row r="140" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F140">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G140">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G140">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H140" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J140" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K140" s="1">
@@ -7093,27 +7151,27 @@
     </row>
     <row r="141" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F141">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G141">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G141">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H141" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J141" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K141" s="1">
@@ -7134,27 +7192,27 @@
     </row>
     <row r="142" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F142">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G142">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G142">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H142" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J142" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K142" s="1">
@@ -7175,27 +7233,27 @@
     </row>
     <row r="143" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F143">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G143">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G143">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H143" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J143" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K143" s="1">
@@ -7216,27 +7274,27 @@
     </row>
     <row r="144" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F144">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G144">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G144">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H144" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J144" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K144" s="1">
@@ -7257,27 +7315,27 @@
     </row>
     <row r="145" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F145">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G145">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G145">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H145" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J145" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K145" s="1">
@@ -7298,27 +7356,27 @@
     </row>
     <row r="146" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F146">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G146">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G146">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H146" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J146" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K146" s="1">
@@ -7339,27 +7397,27 @@
     </row>
     <row r="147" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F147">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G147">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G147">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H147" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J147" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K147" s="1">
@@ -7380,27 +7438,27 @@
     </row>
     <row r="148" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F148">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G148">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G148">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H148" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J148" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K148" s="1">
@@ -7421,27 +7479,27 @@
     </row>
     <row r="149" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F149">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G149">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G149">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H149" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J149" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K149" s="1">
@@ -7462,27 +7520,27 @@
     </row>
     <row r="150" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F150">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G150">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G150">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H150" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J150" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K150" s="1">
@@ -7503,27 +7561,27 @@
     </row>
     <row r="151" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F151">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G151">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G151">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H151" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J151" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K151" s="1">
@@ -7544,27 +7602,27 @@
     </row>
     <row r="152" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F152">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G152">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G152">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H152" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J152" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K152" s="1">
@@ -7585,27 +7643,27 @@
     </row>
     <row r="153" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F153">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G153">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G153">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H153" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J153" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K153" s="1">
@@ -7626,27 +7684,27 @@
     </row>
     <row r="154" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F154">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G154">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G154">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H154" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J154" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K154" s="1">
@@ -7667,27 +7725,27 @@
     </row>
     <row r="155" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F155">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G155">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G155">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H155" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J155" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K155" s="1">
@@ -7708,27 +7766,27 @@
     </row>
     <row r="156" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F156">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G156">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G156">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H156" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J156" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K156" s="1">
@@ -7749,27 +7807,27 @@
     </row>
     <row r="157" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F157">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G157">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G157">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H157" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J157" s="2" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K157" s="1">
@@ -7790,42 +7848,124 @@
     </row>
     <row r="158" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F158">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G158">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G158">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="H158" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K158" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L158" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M158" s="1">
+        <v>1</v>
+      </c>
+      <c r="N158" s="1">
+        <v>100</v>
+      </c>
+      <c r="O158" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D159">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J158" s="2" t="e">
+      <c r="E159">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K158" s="1">
-        <v>1180</v>
-      </c>
-      <c r="L158" s="1">
-        <v>1140</v>
-      </c>
-      <c r="M158" s="1">
-        <v>1</v>
-      </c>
-      <c r="N158" s="1">
-        <v>100</v>
-      </c>
-      <c r="O158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H159" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K159" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L159" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M159" s="1">
+        <v>1</v>
+      </c>
+      <c r="N159" s="1">
+        <v>100</v>
+      </c>
+      <c r="O159" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H160" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K160" s="1">
+        <v>1180</v>
+      </c>
+      <c r="L160" s="1">
+        <v>1140</v>
+      </c>
+      <c r="M160" s="1">
+        <v>1</v>
+      </c>
+      <c r="N160" s="1">
+        <v>100</v>
+      </c>
+      <c r="O160" s="1">
         <v>14</v>
       </c>
     </row>
